--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\FundamentosProgramacion\Repos\Datos\Datos_Analitica\Monografia_2025\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\Repos Monografia\Monografia_EACD\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD517647-5520-4655-9337-F88252C88552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D1082E-831D-4540-B3D5-2D54B44A7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Fase</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Definición de Objetivos</t>
   </si>
   <si>
-    <t>No Iniciado</t>
-  </si>
-  <si>
     <t>Identificación de Fuentes de Datos</t>
   </si>
   <si>
@@ -180,6 +177,15 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Ajustes Documento Final</t>
+  </si>
+  <si>
+    <t>Envio documento Final CENDOI</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -593,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <v>45870</v>
@@ -605,17 +611,17 @@
         <v>45915</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
@@ -625,20 +631,20 @@
         <v>45917</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6">
         <v>45870</v>
@@ -647,20 +653,20 @@
         <v>45915</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6">
         <v>45870</v>
@@ -669,20 +675,20 @@
         <v>45915</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6">
         <v>45870</v>
@@ -691,22 +697,22 @@
         <v>45915</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
         <v>45870</v>
@@ -715,20 +721,20 @@
         <v>45915</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6">
         <v>45915</v>
@@ -737,20 +743,20 @@
         <v>45930</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6">
         <v>45915</v>
@@ -759,22 +765,22 @@
         <v>45945</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>45950</v>
@@ -783,20 +789,20 @@
         <v>45960</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6">
         <v>45950</v>
@@ -805,20 +811,20 @@
         <v>45976</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6">
         <v>45950</v>
@@ -827,20 +833,20 @@
         <v>45976</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6">
         <v>45962</v>
@@ -849,22 +855,22 @@
         <v>45976</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>45962</v>
@@ -873,17 +879,19 @@
         <v>45976</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="6">
         <v>45966</v>
       </c>
@@ -891,17 +899,19 @@
         <v>45981</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="6">
         <v>45966</v>
       </c>
@@ -909,21 +919,23 @@
         <v>45981</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="6">
         <v>45966</v>
       </c>
@@ -931,19 +943,21 @@
         <v>45981</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="6">
         <v>45966</v>
       </c>
@@ -951,19 +965,21 @@
         <v>45981</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="6">
         <v>45976</v>
       </c>
@@ -971,34 +987,74 @@
         <v>45985</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45985</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45988</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45988</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45993</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A13"/>
